--- a/services/worker/demos/report/output/expenses/this_month/expenses-this_month.xlsx
+++ b/services/worker/demos/report/output/expenses/this_month/expenses-this_month.xlsx
@@ -288,9 +288,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="₪#,##0.00"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -352,7 +349,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
